--- a/doc/基本設計/URL_Controller一覧.xlsx
+++ b/doc/基本設計/URL_Controller一覧.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Blogs\doc\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF81028-FE72-4B02-8F05-C575B785C3D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49AF5CA-35CA-4D35-9E59-37FE0FA146A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B5F7F5CC-D9DE-4576-8281-2354912847D0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -199,22 +199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LoginController@create</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LoginController@change</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LoginController@conf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LoginController@index</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CaretakerController@index</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -268,6 +252,16 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Auth機能で作成</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -507,15 +501,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -531,35 +516,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -879,7 +873,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -889,13 +883,14 @@
     <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -910,83 +905,83 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>52</v>
+      <c r="B7" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -994,45 +989,45 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="20"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="20"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="20"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>27</v>
@@ -1040,13 +1035,13 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="20"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
@@ -1054,13 +1049,13 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="20"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>30</v>
@@ -1068,15 +1063,15 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="20"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>27</v>
@@ -1084,13 +1079,13 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="21"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
@@ -1098,7 +1093,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1106,15 +1101,15 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
@@ -1122,13 +1117,13 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>15</v>
@@ -1146,22 +1141,18 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{C328C574-9B1A-4973-92E2-5BD2481689C5}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{299948C6-225A-4AFB-B6B0-06917478F1F9}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{5BCC2D48-8895-4001-A731-3F6C9B4010C9}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{041E5D48-7436-4839-AE78-58A67BECFCA0}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{B865F705-6957-442A-ADD2-6F134F896901}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{ED166B3D-14C2-4895-B96A-F2412737E3DB}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{5B322812-DA4D-427A-B288-88B64FD448FF}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{C05E1A59-6B99-49AB-A46F-1BADBC807C95}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{08F301B1-C46A-4100-A5E6-FE37A6B129D9}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{E2FC37E3-CB4A-4A9D-8673-ADD375C378F9}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{013B8442-E1F1-41D1-9DB5-720D6DF7D0DE}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{F9DB0087-C68B-4BE8-9E9E-AB081589A9DD}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{6210945E-2A3F-4307-985E-4DE405D92149}"/>
-    <hyperlink ref="D17" r:id="rId14" xr:uid="{A25447F9-1FA5-46ED-9764-51BB1033B6FC}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{B865F705-6957-442A-ADD2-6F134F896901}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{ED166B3D-14C2-4895-B96A-F2412737E3DB}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{5B322812-DA4D-427A-B288-88B64FD448FF}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{C05E1A59-6B99-49AB-A46F-1BADBC807C95}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{08F301B1-C46A-4100-A5E6-FE37A6B129D9}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{E2FC37E3-CB4A-4A9D-8673-ADD375C378F9}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{013B8442-E1F1-41D1-9DB5-720D6DF7D0DE}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{F9DB0087-C68B-4BE8-9E9E-AB081589A9DD}"/>
+    <hyperlink ref="D16" r:id="rId9" xr:uid="{6210945E-2A3F-4307-985E-4DE405D92149}"/>
+    <hyperlink ref="D17" r:id="rId10" xr:uid="{A25447F9-1FA5-46ED-9764-51BB1033B6FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>